--- a/docentes/Saucedo Rivalcoba Graciela - Estadisticos 20242.xlsx
+++ b/docentes/Saucedo Rivalcoba Graciela - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
   <si>
     <t>Mat</t>
   </si>
@@ -68,78 +68,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>AJACTLE</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>ABURTO</t>
-  </si>
-  <si>
-    <t>CUAPIO</t>
-  </si>
-  <si>
-    <t>FRANCO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XOCHICALE</t>
-  </si>
-  <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
-    <t>CORDERO</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ZUGAIDE</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>SANDRA GABRIELA</t>
-  </si>
-  <si>
-    <t>CARLOS ADRIAN</t>
-  </si>
-  <si>
-    <t>ERIC ELIU</t>
-  </si>
-  <si>
-    <t>KALETTE</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>MARLON</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>SANTIEL</t>
   </si>
 </sst>
 </file>
@@ -540,22 +468,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>90.91</v>
-      </c>
-      <c r="H2">
-        <v>9.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -634,18 +556,15 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -660,16 +579,19 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
     </row>
   </sheetData>
@@ -722,18 +644,15 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
         <v>0</v>
       </c>
     </row>
@@ -760,7 +679,7 @@
         <v>81.81999999999999</v>
       </c>
       <c r="H3">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +689,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -803,190 +722,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>24330051920282</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>24330051920320</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>24330051920321</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>24330051920286</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>24330051920287</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>24330051920322</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>24330051920296</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>24330051920297</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
